--- a/Etude de tendance/Etude de tendance PIB Belgique&RFA.xlsx
+++ b/Etude de tendance/Etude de tendance PIB Belgique&RFA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\Time-Series-Analysis\Décomposition saisonnière\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\Time-Series-Analysis\Etude de tendance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A66D93B-DF61-46A3-BC89-91C468365687}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C977AF2-3529-4F54-AAD5-46AC35E580CB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="5460" yWindow="3390" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -625,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -697,6 +697,7 @@
       <c r="K5" t="s">
         <v>26</v>
       </c>
+      <c r="L5" s="7"/>
       <c r="M5" t="s">
         <v>26</v>
       </c>

--- a/Etude de tendance/Etude de tendance PIB Belgique&RFA.xlsx
+++ b/Etude de tendance/Etude de tendance PIB Belgique&RFA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\Time-Series-Analysis\Etude de tendance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C977AF2-3529-4F54-AAD5-46AC35E580CB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09283E70-53BB-4376-B848-30F14384009F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5460" yWindow="3390" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -173,11 +173,13 @@
       <sz val="10"/>
       <color indexed="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -193,6 +195,7 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -626,7 +629,7 @@
   <dimension ref="A1:Y53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1061,6 +1064,10 @@
         <f>_xlfn.VAR.P(A6:A13)</f>
         <v>5.25</v>
       </c>
+      <c r="K15">
+        <f>_xlfn.COVARIANCE.P(A6:A13,E6:E13)</f>
+        <v>0.71704059472459292</v>
+      </c>
     </row>
     <row r="16" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="10" t="s">

--- a/Etude de tendance/Etude de tendance PIB Belgique&RFA.xlsx
+++ b/Etude de tendance/Etude de tendance PIB Belgique&RFA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\Time-Series-Analysis\Etude de tendance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09283E70-53BB-4376-B848-30F14384009F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738418DC-C55E-4B8F-85BE-B556C675BBB5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -629,7 +629,7 @@
   <dimension ref="A1:Y53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1029,7 +1029,7 @@
         <v>6.3236418594463144</v>
       </c>
       <c r="K13">
-        <f t="shared" si="5"/>
+        <f>(E13-$E$14)*(A13-$A$14)</f>
         <v>1.4095665675469322</v>
       </c>
       <c r="M13">
